--- a/Results/Survey all categories (not done yet).xlsx
+++ b/Results/Survey all categories (not done yet).xlsx
@@ -5,17 +5,19 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\Southampton\Foundation of data science\Data\data_diggers\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="11205" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Weights" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="For analysis" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$124</definedName>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="84">
   <si>
     <t>26-35</t>
   </si>
@@ -210,6 +212,97 @@
   </si>
   <si>
     <t>Weights for 36-45：</t>
+  </si>
+  <si>
+    <t>Weights for Asian:</t>
+  </si>
+  <si>
+    <t>Weights for Europe(not UK):</t>
+  </si>
+  <si>
+    <t>Weights for North America:</t>
+  </si>
+  <si>
+    <t>Weights for UK:</t>
+  </si>
+  <si>
+    <t>Weights for Asian:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weights for Europe(not UK):</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weights for North America:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weights for UK:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weights for A homemaker: (Occp)</t>
+  </si>
+  <si>
+    <t>Weights for A homemaker: (Occp)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weights for Students:</t>
+  </si>
+  <si>
+    <t>Weights for Students:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weights for Doctors:</t>
+  </si>
+  <si>
+    <t>Weights for Doctors:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weights for (Employed for wages):</t>
+  </si>
+  <si>
+    <t>Weights for (Employed for wages):</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weights for Military:</t>
+  </si>
+  <si>
+    <t>Weights for Military:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weights for Self-employed:</t>
+  </si>
+  <si>
+    <t>Weights for Self-employed:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weights for Out of Work(Got jobs)</t>
+  </si>
+  <si>
+    <t>Weights for Out of Work(Got jobs)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weights for Out of Work(Looking for jobs):</t>
+  </si>
+  <si>
+    <t>Weights for Out of Work(Looking for jobs):</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weights for Working in IT firm:</t>
+  </si>
+  <si>
+    <t>Weights for Working in IT firm:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -598,13 +691,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q139"/>
+  <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
+      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -786,7 +878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,7 +1037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -998,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1104,7 +1196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1157,7 +1249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1210,7 +1302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1263,7 +1355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1316,7 +1408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1422,7 +1514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1475,7 +1567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1528,7 +1620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1634,7 +1726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1687,7 +1779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1740,7 +1832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1793,7 +1885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1846,7 +1938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1899,7 +1991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -1952,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -2005,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -2058,7 +2150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -2111,7 +2203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -2164,7 +2256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -2217,7 +2309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -2270,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -2376,7 +2468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -2482,7 +2574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -2535,7 +2627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -2641,7 +2733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -2747,7 +2839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -2853,7 +2945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -2906,7 +2998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -2959,7 +3051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -3012,7 +3104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
@@ -3065,7 +3157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -3118,7 +3210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -3171,7 +3263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -3330,7 +3422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
@@ -3383,7 +3475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -3436,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
@@ -3489,7 +3581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -3542,7 +3634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -3595,7 +3687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -3648,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -3701,7 +3793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -3754,7 +3846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -3860,7 +3952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -3913,7 +4005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -3966,7 +4058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -4072,7 +4164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -4125,7 +4217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -4178,7 +4270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
@@ -4390,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
@@ -4443,7 +4535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>7</v>
       </c>
@@ -4496,7 +4588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
@@ -4549,7 +4641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>7</v>
       </c>
@@ -4602,7 +4694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -4708,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -4973,7 +5065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
@@ -5026,7 +5118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
@@ -5132,7 +5224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
@@ -5238,7 +5330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -5291,7 +5383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -5344,7 +5436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>7</v>
       </c>
@@ -5397,7 +5489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>7</v>
       </c>
@@ -5715,7 +5807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
@@ -5768,7 +5860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>7</v>
       </c>
@@ -5927,7 +6019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
@@ -5980,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>7</v>
       </c>
@@ -6086,7 +6178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>7</v>
       </c>
@@ -6139,7 +6231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>7</v>
       </c>
@@ -6192,7 +6284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>7</v>
       </c>
@@ -6245,7 +6337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>7</v>
       </c>
@@ -6298,7 +6390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>7</v>
       </c>
@@ -6351,7 +6443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>7</v>
       </c>
@@ -6404,7 +6496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
@@ -6457,7 +6549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>7</v>
       </c>
@@ -6510,7 +6602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>7</v>
       </c>
@@ -6563,7 +6655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
@@ -6669,7 +6761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
@@ -6722,7 +6814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -6775,7 +6867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>7</v>
       </c>
@@ -6828,7 +6920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
@@ -6881,7 +6973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>7</v>
       </c>
@@ -7040,7 +7132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>7</v>
       </c>
@@ -7146,7 +7238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>7</v>
       </c>
@@ -7875,14 +7967,579 @@
         <v>3</v>
       </c>
     </row>
+    <row r="140" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D140" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E140" s="5">
+        <v>3.7777777777777777</v>
+      </c>
+      <c r="F140" s="5">
+        <v>3.2592592592592591</v>
+      </c>
+      <c r="G140" s="5">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H140" s="5">
+        <v>3.5185185185185186</v>
+      </c>
+      <c r="I140" s="5">
+        <v>2.9629629629629628</v>
+      </c>
+      <c r="J140" s="5">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K140" s="5">
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="L140" s="5">
+        <v>3.4814814814814814</v>
+      </c>
+      <c r="M140" s="5">
+        <v>3.5925925925925926</v>
+      </c>
+      <c r="N140" s="5">
+        <v>3.6296296296296298</v>
+      </c>
+      <c r="O140" s="5">
+        <v>3.5925925925925926</v>
+      </c>
+      <c r="P140" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q140" s="5">
+        <v>3.9629629629629628</v>
+      </c>
+    </row>
+    <row r="141" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D141" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E141" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F141" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="G141" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="H141" s="5">
+        <v>4</v>
+      </c>
+      <c r="I141" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="J141" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="K141" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="L141" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="M141" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="N141" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="O141" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="P141" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="Q141" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D142" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="5">
+        <v>3</v>
+      </c>
+      <c r="F142" s="5">
+        <v>3</v>
+      </c>
+      <c r="G142" s="5">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="H142" s="5">
+        <v>4</v>
+      </c>
+      <c r="I142" s="5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="J142" s="5">
+        <v>3</v>
+      </c>
+      <c r="K142" s="5">
+        <v>3</v>
+      </c>
+      <c r="L142" s="5">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="M142" s="5">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="N142" s="5">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="O142" s="5">
+        <v>4</v>
+      </c>
+      <c r="P142" s="5">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="Q142" s="5">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="143" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D143" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E143" s="5">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="F143" s="5">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G143" s="5">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H143" s="5">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="I143" s="5">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J143" s="5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="K143" s="5">
+        <v>3</v>
+      </c>
+      <c r="L143" s="5">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="M143" s="5">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N143" s="5">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="O143" s="5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="P143" s="5">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="Q143" s="5">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="144" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D144" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E144" s="5">
+        <v>5</v>
+      </c>
+      <c r="F144" s="5">
+        <v>3</v>
+      </c>
+      <c r="G144" s="5">
+        <v>3</v>
+      </c>
+      <c r="H144" s="5">
+        <v>4</v>
+      </c>
+      <c r="I144" s="5">
+        <v>5</v>
+      </c>
+      <c r="J144" s="5">
+        <v>4</v>
+      </c>
+      <c r="K144" s="5">
+        <v>5</v>
+      </c>
+      <c r="L144" s="5">
+        <v>2</v>
+      </c>
+      <c r="M144" s="5">
+        <v>4</v>
+      </c>
+      <c r="N144" s="5">
+        <v>3</v>
+      </c>
+      <c r="O144" s="5">
+        <v>5</v>
+      </c>
+      <c r="P144" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q144" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D145" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="5">
+        <v>3.3846153846153846</v>
+      </c>
+      <c r="F145" s="5">
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="G145" s="5">
+        <v>2.8153846153846156</v>
+      </c>
+      <c r="H145" s="5">
+        <v>3.2307692307692308</v>
+      </c>
+      <c r="I145" s="5">
+        <v>3.046153846153846</v>
+      </c>
+      <c r="J145" s="5">
+        <v>3.0153846153846153</v>
+      </c>
+      <c r="K145" s="5">
+        <v>3.5384615384615383</v>
+      </c>
+      <c r="L145" s="5">
+        <v>3.4461538461538463</v>
+      </c>
+      <c r="M145" s="5">
+        <v>2.8923076923076922</v>
+      </c>
+      <c r="N145" s="5">
+        <v>3.4923076923076923</v>
+      </c>
+      <c r="O145" s="5">
+        <v>3.7384615384615385</v>
+      </c>
+      <c r="P145" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="Q145" s="5">
+        <v>3.6461538461538461</v>
+      </c>
+    </row>
+    <row r="146" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D146" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E146" s="5">
+        <v>1</v>
+      </c>
+      <c r="F146" s="5">
+        <v>2</v>
+      </c>
+      <c r="G146" s="5">
+        <v>3</v>
+      </c>
+      <c r="H146" s="5">
+        <v>1</v>
+      </c>
+      <c r="I146" s="5">
+        <v>1</v>
+      </c>
+      <c r="J146" s="5">
+        <v>4</v>
+      </c>
+      <c r="K146" s="5">
+        <v>2</v>
+      </c>
+      <c r="L146" s="5">
+        <v>2</v>
+      </c>
+      <c r="M146" s="5">
+        <v>2</v>
+      </c>
+      <c r="N146" s="5">
+        <v>4</v>
+      </c>
+      <c r="O146" s="5">
+        <v>2</v>
+      </c>
+      <c r="P146" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q146" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D147" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E147" s="5">
+        <v>3.390625</v>
+      </c>
+      <c r="F147" s="5">
+        <v>3.078125</v>
+      </c>
+      <c r="G147" s="5">
+        <v>2.8125</v>
+      </c>
+      <c r="H147" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="I147" s="5">
+        <v>3.046875</v>
+      </c>
+      <c r="J147" s="5">
+        <v>3.03125</v>
+      </c>
+      <c r="K147" s="5">
+        <v>3.5625</v>
+      </c>
+      <c r="L147" s="5">
+        <v>3.46875</v>
+      </c>
+      <c r="M147" s="5">
+        <v>2.890625</v>
+      </c>
+      <c r="N147" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="O147" s="5">
+        <v>3.765625</v>
+      </c>
+      <c r="P147" s="5">
+        <v>3.21875</v>
+      </c>
+      <c r="Q147" s="5">
+        <v>3.671875</v>
+      </c>
+    </row>
+    <row r="148" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D148" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E148" s="5">
+        <v>1</v>
+      </c>
+      <c r="F148" s="5">
+        <v>1</v>
+      </c>
+      <c r="G148" s="5">
+        <v>1</v>
+      </c>
+      <c r="H148" s="5">
+        <v>3</v>
+      </c>
+      <c r="I148" s="5">
+        <v>2</v>
+      </c>
+      <c r="J148" s="5">
+        <v>2</v>
+      </c>
+      <c r="K148" s="5">
+        <v>1</v>
+      </c>
+      <c r="L148" s="5">
+        <v>3</v>
+      </c>
+      <c r="M148" s="5">
+        <v>5</v>
+      </c>
+      <c r="N148" s="5">
+        <v>5</v>
+      </c>
+      <c r="O148" s="5">
+        <v>4</v>
+      </c>
+      <c r="P148" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q148" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D149" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E149" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="F149" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="G149" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="H149" s="5">
+        <v>4</v>
+      </c>
+      <c r="I149" s="5">
+        <v>4</v>
+      </c>
+      <c r="J149" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="K149" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="L149" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="M149" s="5">
+        <v>4</v>
+      </c>
+      <c r="N149" s="5">
+        <v>4</v>
+      </c>
+      <c r="O149" s="5">
+        <v>4</v>
+      </c>
+      <c r="P149" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="Q149" s="5">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="150" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D150" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E150" s="5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="F150" s="5">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G150" s="5">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H150" s="5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="I150" s="5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="J150" s="5">
+        <v>2</v>
+      </c>
+      <c r="K150" s="5">
+        <v>3</v>
+      </c>
+      <c r="L150" s="5">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M150" s="5">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="N150" s="5">
+        <v>3</v>
+      </c>
+      <c r="O150" s="5">
+        <v>3</v>
+      </c>
+      <c r="P150" s="5">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="Q150" s="5">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="151" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D151" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E151" s="5">
+        <v>3.8666666666666667</v>
+      </c>
+      <c r="F151" s="5">
+        <v>2.7333333333333334</v>
+      </c>
+      <c r="G151" s="5">
+        <v>2.7333333333333334</v>
+      </c>
+      <c r="H151" s="5">
+        <v>3.2666666666666666</v>
+      </c>
+      <c r="I151" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="J151" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="K151" s="5">
+        <v>2.7333333333333334</v>
+      </c>
+      <c r="L151" s="5">
+        <v>2.9333333333333331</v>
+      </c>
+      <c r="M151" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="N151" s="5">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="O151" s="5">
+        <v>2.9333333333333331</v>
+      </c>
+      <c r="P151" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q151" s="5">
+        <v>3.1333333333333333</v>
+      </c>
+    </row>
+    <row r="152" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D152" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E152" s="5">
+        <v>3</v>
+      </c>
+      <c r="F152" s="5">
+        <v>3</v>
+      </c>
+      <c r="G152" s="5">
+        <v>3</v>
+      </c>
+      <c r="H152" s="5">
+        <v>2</v>
+      </c>
+      <c r="I152" s="5">
+        <v>3</v>
+      </c>
+      <c r="J152" s="5">
+        <v>2</v>
+      </c>
+      <c r="K152" s="5">
+        <v>2</v>
+      </c>
+      <c r="L152" s="5">
+        <v>2</v>
+      </c>
+      <c r="M152" s="5">
+        <v>3</v>
+      </c>
+      <c r="N152" s="5">
+        <v>3</v>
+      </c>
+      <c r="O152" s="5">
+        <v>2</v>
+      </c>
+      <c r="P152" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q152" s="5">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q124" xr:uid="{08B74967-0D68-49F5-B236-9C5A850C95C8}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="26-35"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7891,10 +8548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E99C53-EE77-4D45-A00F-9326C9D150B5}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7905,617 +8562,1148 @@
     <col min="14" max="14" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>38</v>
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="5">
+        <v>3.5365853658536586</v>
+      </c>
+      <c r="C1" s="5">
+        <v>3.089430894308943</v>
+      </c>
+      <c r="D1" s="5">
+        <v>3.0162601626016259</v>
+      </c>
+      <c r="E1" s="5">
+        <v>3.3170731707317072</v>
+      </c>
+      <c r="F1" s="5">
+        <v>3.024390243902439</v>
+      </c>
+      <c r="G1" s="5">
+        <v>3.0569105691056913</v>
+      </c>
+      <c r="H1" s="5">
+        <v>3.4715447154471546</v>
+      </c>
+      <c r="I1" s="5">
+        <v>3.3252032520325203</v>
+      </c>
+      <c r="J1" s="5">
+        <v>3.0162601626016259</v>
+      </c>
+      <c r="K1" s="5">
+        <v>3.4878048780487805</v>
+      </c>
+      <c r="L1" s="5">
+        <v>3.5609756097560976</v>
+      </c>
+      <c r="M1" s="5">
+        <v>3.3414634146341462</v>
+      </c>
+      <c r="N1" s="5">
+        <v>3.6341463414634148</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="5">
-        <v>3.5365853658536586</v>
-      </c>
-      <c r="C2" s="5">
-        <v>3.089430894308943</v>
-      </c>
-      <c r="D2" s="5">
-        <v>3.0162601626016259</v>
-      </c>
-      <c r="E2" s="5">
-        <v>3.3170731707317072</v>
-      </c>
-      <c r="F2" s="5">
-        <v>3.024390243902439</v>
-      </c>
-      <c r="G2" s="5">
-        <v>3.0569105691056913</v>
-      </c>
-      <c r="H2" s="5">
-        <v>3.4715447154471546</v>
-      </c>
-      <c r="I2" s="5">
-        <v>3.3252032520325203</v>
-      </c>
-      <c r="J2" s="5">
-        <v>3.0162601626016259</v>
-      </c>
-      <c r="K2" s="5">
-        <v>3.4878048780487805</v>
-      </c>
-      <c r="L2" s="5">
-        <v>3.5609756097560976</v>
-      </c>
-      <c r="M2" s="5">
-        <v>3.3414634146341462</v>
-      </c>
-      <c r="N2" s="5">
-        <v>3.6341463414634148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B2" s="6">
         <v>0.84210526315789469</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C2" s="6">
         <v>0.11842105263157901</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E2" s="6">
         <v>0.48684210526315763</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F2" s="6">
         <v>1.3157894736842351E-2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G2" s="6">
         <v>6.5789473684211036E-2</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H2" s="6">
         <v>0.73684210526315796</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I2" s="6">
         <v>0.5</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J2" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K2" s="6">
         <v>0.76315789473684204</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L2" s="6">
         <v>0.88157894736842102</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M2" s="6">
         <v>0.52631578947368396</v>
       </c>
-      <c r="N3" s="6">
-        <v>1</v>
+      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3.6969696969696968</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.106060606060606</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.9848484848484849</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.4090909090909092</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3.0606060606060606</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>3.3636363636363638</v>
+      </c>
+      <c r="J3" s="5">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="K3" s="5">
+        <v>3.6212121212121211</v>
+      </c>
+      <c r="L3" s="5">
+        <v>3.393939393939394</v>
+      </c>
+      <c r="M3" s="5">
+        <v>3.3787878787878789</v>
+      </c>
+      <c r="N3" s="5">
+        <v>3.5606060606060606</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5">
-        <v>3.6969696969696968</v>
+        <v>3.3571428571428572</v>
       </c>
       <c r="C4" s="5">
-        <v>3.106060606060606</v>
+        <v>3.0535714285714284</v>
       </c>
       <c r="D4" s="5">
-        <v>2.9848484848484849</v>
+        <v>3.0178571428571428</v>
       </c>
       <c r="E4" s="5">
-        <v>3.4090909090909092</v>
+        <v>3.2142857142857144</v>
       </c>
       <c r="F4" s="5">
-        <v>3.0303030303030303</v>
+        <v>3.0178571428571428</v>
       </c>
       <c r="G4" s="5">
-        <v>3.0606060606060606</v>
+        <v>3.0714285714285716</v>
       </c>
       <c r="H4" s="5">
-        <v>3.5</v>
+        <v>3.4464285714285716</v>
       </c>
       <c r="I4" s="5">
-        <v>3.3636363636363638</v>
+        <v>3.3214285714285716</v>
       </c>
       <c r="J4" s="5">
-        <v>3.0303030303030303</v>
+        <v>3.0357142857142856</v>
       </c>
       <c r="K4" s="5">
-        <v>3.6212121212121211</v>
+        <v>3.375</v>
       </c>
       <c r="L4" s="5">
-        <v>3.393939393939394</v>
+        <v>3.8035714285714284</v>
       </c>
       <c r="M4" s="5">
-        <v>3.3787878787878789</v>
+        <v>3.3392857142857144</v>
       </c>
       <c r="N4" s="5">
-        <v>3.5606060606060606</v>
+        <v>3.7678571428571428</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5">
-        <v>3.3571428571428572</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>3.0535714285714284</v>
+        <v>0.17021276595744669</v>
       </c>
       <c r="D5" s="5">
-        <v>3.0178571428571428</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>3.2142857142857144</v>
+        <v>0.59574468085106413</v>
       </c>
       <c r="F5" s="5">
-        <v>3.0178571428571428</v>
+        <v>6.3829787234042507E-2</v>
       </c>
       <c r="G5" s="5">
-        <v>3.0714285714285716</v>
+        <v>0.10638297872340419</v>
       </c>
       <c r="H5" s="5">
-        <v>3.4464285714285716</v>
+        <v>0.72340425531914909</v>
       </c>
       <c r="I5" s="5">
-        <v>3.3214285714285716</v>
+        <v>0.5319148936170216</v>
       </c>
       <c r="J5" s="5">
-        <v>3.0357142857142856</v>
+        <v>6.3829787234042507E-2</v>
       </c>
       <c r="K5" s="5">
-        <v>3.375</v>
+        <v>0.89361702127659581</v>
       </c>
       <c r="L5" s="5">
-        <v>3.8035714285714284</v>
+        <v>0.57446808510638325</v>
       </c>
       <c r="M5" s="5">
-        <v>3.3392857142857144</v>
+        <v>0.55319148936170237</v>
       </c>
       <c r="N5" s="5">
-        <v>3.7678571428571428</v>
+        <v>0.80851063829787251</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5">
-        <v>1</v>
+        <v>0.43181818181818205</v>
       </c>
       <c r="C6" s="5">
-        <v>0.17021276595744669</v>
+        <v>4.5454545454545303E-2</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>0.59574468085106413</v>
+        <v>0.25000000000000028</v>
       </c>
       <c r="F6" s="5">
-        <v>6.3829787234042507E-2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>0.10638297872340419</v>
+        <v>6.818181818181851E-2</v>
       </c>
       <c r="H6" s="5">
-        <v>0.72340425531914909</v>
+        <v>0.54545454545454586</v>
       </c>
       <c r="I6" s="5">
-        <v>0.5319148936170216</v>
+        <v>0.38636363636363674</v>
       </c>
       <c r="J6" s="5">
-        <v>6.3829787234042507E-2</v>
+        <v>2.2727272727272652E-2</v>
       </c>
       <c r="K6" s="5">
-        <v>0.89361702127659581</v>
+        <v>0.4545454545454547</v>
       </c>
       <c r="L6" s="5">
-        <v>0.57446808510638325</v>
+        <v>1</v>
       </c>
       <c r="M6" s="5">
-        <v>0.55319148936170237</v>
+        <v>0.40909090909090939</v>
       </c>
       <c r="N6" s="5">
-        <v>0.80851063829787251</v>
+        <v>0.9545454545454547</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5">
-        <v>0.43181818181818205</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="C7" s="5">
-        <v>4.5454545454545303E-2</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="D7" s="5">
-        <v>0</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E7" s="5">
-        <v>0.25000000000000028</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="F7" s="5">
-        <v>0</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="G7" s="5">
-        <v>6.818181818181851E-2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H7" s="5">
-        <v>0.54545454545454586</v>
+        <v>4</v>
       </c>
       <c r="I7" s="5">
-        <v>0.38636363636363674</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J7" s="5">
-        <v>2.2727272727272652E-2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K7" s="5">
-        <v>0.4545454545454547</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="L7" s="5">
-        <v>1</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="M7" s="5">
-        <v>0.40909090909090939</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="N7" s="5">
-        <v>0.9545454545454547</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5">
-        <v>2.6666666666666665</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="C8" s="5">
-        <v>3.6666666666666665</v>
+        <v>0.69999999999999973</v>
       </c>
       <c r="D8" s="5">
-        <v>2.6666666666666665</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="E8" s="5">
-        <v>3.3333333333333335</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="F8" s="5">
-        <v>2.3333333333333335</v>
+        <v>0.3</v>
       </c>
       <c r="G8" s="5">
-        <v>2.6666666666666665</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="H8" s="5">
-        <v>4</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="I8" s="5">
-        <v>3.3333333333333335</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="J8" s="5">
-        <v>1.6666666666666667</v>
+        <v>0.10000000000000003</v>
       </c>
       <c r="K8" s="5">
-        <v>4.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="L8" s="5">
-        <v>2.6666666666666665</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="M8" s="5">
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="N8" s="5">
-        <v>4.333333333333333</v>
+        <v>0.8999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5">
-        <v>0.39999999999999991</v>
+        <v>3.6190476190476191</v>
       </c>
       <c r="C9" s="5">
-        <v>0.69999999999999973</v>
+        <v>3.1190476190476191</v>
       </c>
       <c r="D9" s="5">
-        <v>0.39999999999999991</v>
+        <v>3.0476190476190474</v>
       </c>
       <c r="E9" s="5">
-        <v>0.59999999999999987</v>
+        <v>3.2738095238095237</v>
       </c>
       <c r="F9" s="5">
-        <v>0.3</v>
+        <v>2.9523809523809526</v>
       </c>
       <c r="G9" s="5">
-        <v>0.39999999999999991</v>
+        <v>3.0238095238095237</v>
       </c>
       <c r="H9" s="5">
-        <v>0.79999999999999993</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="I9" s="5">
-        <v>0.59999999999999987</v>
+        <v>3.3690476190476191</v>
       </c>
       <c r="J9" s="5">
-        <v>0.10000000000000003</v>
+        <v>2.9642857142857144</v>
       </c>
       <c r="K9" s="5">
-        <v>1</v>
+        <v>3.4166666666666665</v>
       </c>
       <c r="L9" s="5">
-        <v>0.39999999999999991</v>
+        <v>3.4761904761904763</v>
       </c>
       <c r="M9" s="5">
-        <v>0</v>
+        <v>3.3571428571428572</v>
       </c>
       <c r="N9" s="5">
-        <v>0.8999999999999998</v>
+        <v>3.5952380952380953</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5">
-        <v>3.6190476190476191</v>
+        <v>0.65476190476190477</v>
       </c>
       <c r="C10" s="5">
-        <v>3.1190476190476191</v>
+        <v>0.52976190476190477</v>
       </c>
       <c r="D10" s="5">
-        <v>3.0476190476190474</v>
+        <v>0.51190476190476186</v>
       </c>
       <c r="E10" s="5">
-        <v>3.2738095238095237</v>
+        <v>0.56845238095238093</v>
       </c>
       <c r="F10" s="5">
-        <v>2.9523809523809526</v>
+        <v>0.48809523809523814</v>
       </c>
       <c r="G10" s="5">
-        <v>3.0238095238095237</v>
+        <v>0.50595238095238093</v>
       </c>
       <c r="H10" s="5">
-        <v>3.4285714285714284</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="I10" s="5">
-        <v>3.3690476190476191</v>
+        <v>0.59226190476190477</v>
       </c>
       <c r="J10" s="5">
-        <v>2.9642857142857144</v>
+        <v>0.4910714285714286</v>
       </c>
       <c r="K10" s="5">
-        <v>3.4166666666666665</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="L10" s="5">
-        <v>3.4761904761904763</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="M10" s="5">
-        <v>3.3571428571428572</v>
+        <v>0.5892857142857143</v>
       </c>
       <c r="N10" s="5">
-        <v>3.5952380952380953</v>
+        <v>0.64880952380952384</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5">
-        <v>0.65476190476190477</v>
+        <v>3.7894736842105261</v>
       </c>
       <c r="C11" s="5">
-        <v>0.52976190476190477</v>
+        <v>3.263157894736842</v>
       </c>
       <c r="D11" s="5">
-        <v>0.51190476190476186</v>
+        <v>3.3421052631578947</v>
       </c>
       <c r="E11" s="5">
-        <v>0.56845238095238093</v>
+        <v>3.5526315789473686</v>
       </c>
       <c r="F11" s="5">
-        <v>0.48809523809523814</v>
+        <v>2.9210526315789473</v>
       </c>
       <c r="G11" s="5">
-        <v>0.50595238095238093</v>
+        <v>3.1578947368421053</v>
       </c>
       <c r="H11" s="5">
-        <v>0.6071428571428571</v>
+        <v>3.7894736842105261</v>
       </c>
       <c r="I11" s="5">
-        <v>0.59226190476190477</v>
+        <v>3.3947368421052633</v>
       </c>
       <c r="J11" s="5">
-        <v>0.4910714285714286</v>
+        <v>3.2894736842105261</v>
       </c>
       <c r="K11" s="5">
-        <v>0.60416666666666663</v>
+        <v>3.6842105263157894</v>
       </c>
       <c r="L11" s="5">
-        <v>0.61904761904761907</v>
+        <v>3.4736842105263159</v>
       </c>
       <c r="M11" s="5">
-        <v>0.5892857142857143</v>
+        <v>3.8157894736842106</v>
       </c>
       <c r="N11" s="5">
-        <v>0.64880952380952384</v>
+        <v>3.8421052631578947</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5">
-        <v>3.7894736842105261</v>
+        <v>0.69736842105263153</v>
       </c>
       <c r="C12" s="5">
-        <v>3.263157894736842</v>
+        <v>0.56578947368421051</v>
       </c>
       <c r="D12" s="5">
-        <v>3.3421052631578947</v>
+        <v>0.58552631578947367</v>
       </c>
       <c r="E12" s="5">
-        <v>3.5526315789473686</v>
+        <v>0.63815789473684215</v>
       </c>
       <c r="F12" s="5">
-        <v>2.9210526315789473</v>
+        <v>0.48026315789473684</v>
       </c>
       <c r="G12" s="5">
-        <v>3.1578947368421053</v>
+        <v>0.53947368421052633</v>
       </c>
       <c r="H12" s="5">
-        <v>3.7894736842105261</v>
+        <v>0.69736842105263153</v>
       </c>
       <c r="I12" s="5">
-        <v>3.3947368421052633</v>
+        <v>0.59868421052631582</v>
       </c>
       <c r="J12" s="5">
-        <v>3.2894736842105261</v>
+        <v>0.57236842105263153</v>
       </c>
       <c r="K12" s="5">
-        <v>3.6842105263157894</v>
+        <v>0.67105263157894735</v>
       </c>
       <c r="L12" s="5">
-        <v>3.4736842105263159</v>
+        <v>0.61842105263157898</v>
       </c>
       <c r="M12" s="5">
-        <v>3.8157894736842106</v>
+        <v>0.70394736842105265</v>
       </c>
       <c r="N12" s="5">
-        <v>3.8421052631578947</v>
+        <v>0.71052631578947367</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5">
-        <v>0.69736842105263153</v>
+        <v>5</v>
       </c>
       <c r="C13" s="5">
-        <v>0.56578947368421051</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5">
-        <v>0.58552631578947367</v>
+        <v>4</v>
       </c>
       <c r="E13" s="5">
-        <v>0.63815789473684215</v>
+        <v>3</v>
       </c>
       <c r="F13" s="5">
-        <v>0.48026315789473684</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5">
-        <v>0.53947368421052633</v>
+        <v>2</v>
       </c>
       <c r="H13" s="5">
-        <v>0.69736842105263153</v>
+        <v>3</v>
       </c>
       <c r="I13" s="5">
-        <v>0.59868421052631582</v>
+        <v>1</v>
       </c>
       <c r="J13" s="5">
-        <v>0.57236842105263153</v>
+        <v>5</v>
       </c>
       <c r="K13" s="5">
-        <v>0.67105263157894735</v>
+        <v>1</v>
       </c>
       <c r="L13" s="5">
-        <v>0.61842105263157898</v>
+        <v>4</v>
       </c>
       <c r="M13" s="5">
-        <v>0.70394736842105265</v>
+        <v>3</v>
       </c>
       <c r="N13" s="5">
-        <v>0.71052631578947367</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5">
-        <v>5</v>
+        <v>3.7777777777777777</v>
       </c>
       <c r="C14" s="5">
-        <v>4</v>
+        <v>3.2592592592592591</v>
       </c>
       <c r="D14" s="5">
-        <v>4</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="E14" s="5">
-        <v>3</v>
+        <v>3.5185185185185186</v>
       </c>
       <c r="F14" s="5">
-        <v>3</v>
+        <v>2.9629629629629628</v>
       </c>
       <c r="G14" s="5">
-        <v>2</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="H14" s="5">
-        <v>3</v>
+        <v>3.8888888888888888</v>
       </c>
       <c r="I14" s="5">
-        <v>1</v>
+        <v>3.4814814814814814</v>
       </c>
       <c r="J14" s="5">
-        <v>5</v>
+        <v>3.5925925925925926</v>
       </c>
       <c r="K14" s="5">
-        <v>1</v>
+        <v>3.6296296296296298</v>
       </c>
       <c r="L14" s="5">
-        <v>4</v>
+        <v>3.5925925925925926</v>
       </c>
       <c r="M14" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" s="5">
-        <v>3</v>
+        <v>3.9629629629629628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="H15" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="K15" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="L15" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="M15" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="N15" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3</v>
+      </c>
+      <c r="I16" s="5">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J16" s="5">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="K16" s="5">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="L16" s="5">
+        <v>4</v>
+      </c>
+      <c r="M16" s="5">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="N16" s="5">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="H17" s="5">
+        <v>3</v>
+      </c>
+      <c r="I17" s="5">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K17" s="5">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="L17" s="5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N17" s="5">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5">
+        <v>5</v>
+      </c>
+      <c r="G18" s="5">
+        <v>4</v>
+      </c>
+      <c r="H18" s="5">
+        <v>5</v>
+      </c>
+      <c r="I18" s="5">
+        <v>2</v>
+      </c>
+      <c r="J18" s="5">
+        <v>4</v>
+      </c>
+      <c r="K18" s="5">
+        <v>3</v>
+      </c>
+      <c r="L18" s="5">
+        <v>5</v>
+      </c>
+      <c r="M18" s="5">
+        <v>4</v>
+      </c>
+      <c r="N18" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="5">
+        <v>3.3846153846153846</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2.8153846153846156</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3.2307692307692308</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3.046153846153846</v>
+      </c>
+      <c r="G19" s="5">
+        <v>3.0153846153846153</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3.5384615384615383</v>
+      </c>
+      <c r="I19" s="5">
+        <v>3.4461538461538463</v>
+      </c>
+      <c r="J19" s="5">
+        <v>2.8923076923076922</v>
+      </c>
+      <c r="K19" s="5">
+        <v>3.4923076923076923</v>
+      </c>
+      <c r="L19" s="5">
+        <v>3.7384615384615385</v>
+      </c>
+      <c r="M19" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="N19" s="5">
+        <v>3.6461538461538461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2</v>
+      </c>
+      <c r="I20" s="5">
+        <v>2</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2</v>
+      </c>
+      <c r="K20" s="5">
+        <v>4</v>
+      </c>
+      <c r="L20" s="5">
+        <v>2</v>
+      </c>
+      <c r="M20" s="5">
+        <v>2</v>
+      </c>
+      <c r="N20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3.390625</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3.078125</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2.8125</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3.046875</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3.03125</v>
+      </c>
+      <c r="H21" s="5">
+        <v>3.5625</v>
+      </c>
+      <c r="I21" s="5">
+        <v>3.46875</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2.890625</v>
+      </c>
+      <c r="K21" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="L21" s="5">
+        <v>3.765625</v>
+      </c>
+      <c r="M21" s="5">
+        <v>3.21875</v>
+      </c>
+      <c r="N21" s="5">
+        <v>3.671875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>3</v>
+      </c>
+      <c r="J22" s="5">
+        <v>5</v>
+      </c>
+      <c r="K22" s="5">
+        <v>5</v>
+      </c>
+      <c r="L22" s="5">
+        <v>4</v>
+      </c>
+      <c r="M22" s="5">
+        <v>4</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="H23" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="I23" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="J23" s="5">
+        <v>4</v>
+      </c>
+      <c r="K23" s="5">
+        <v>4</v>
+      </c>
+      <c r="L23" s="5">
+        <v>4</v>
+      </c>
+      <c r="M23" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="N23" s="5">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5">
+        <v>3</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J24" s="5">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="K24" s="5">
+        <v>3</v>
+      </c>
+      <c r="L24" s="5">
+        <v>3</v>
+      </c>
+      <c r="M24" s="5">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="5">
+        <v>3.8666666666666667</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2.7333333333333334</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.7333333333333334</v>
+      </c>
+      <c r="E25" s="5">
+        <v>3.2666666666666666</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2.7333333333333334</v>
+      </c>
+      <c r="I25" s="5">
+        <v>2.9333333333333331</v>
+      </c>
+      <c r="J25" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="K25" s="5">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L25" s="5">
+        <v>2.9333333333333331</v>
+      </c>
+      <c r="M25" s="5">
+        <v>3</v>
+      </c>
+      <c r="N25" s="5">
+        <v>3.1333333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="5">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2</v>
+      </c>
+      <c r="I26" s="5">
+        <v>2</v>
+      </c>
+      <c r="J26" s="5">
+        <v>3</v>
+      </c>
+      <c r="K26" s="5">
+        <v>3</v>
+      </c>
+      <c r="L26" s="5">
+        <v>2</v>
+      </c>
+      <c r="M26" s="5">
+        <v>2</v>
+      </c>
+      <c r="N26" s="5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8529,7 +9717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD1577C-728C-4659-9EF8-12422199086C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E39" sqref="E39:Q40"/>
     </sheetView>
   </sheetViews>
@@ -10668,7 +11856,7 @@
   <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85:Q86"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15131,7 +16319,7 @@
         <v>3.6190476190476191</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="E85:Q85" si="0">AVERAGE(F1:F84)</f>
+        <f t="shared" ref="F85:Q85" si="0">AVERAGE(F1:F84)</f>
         <v>3.1190476190476191</v>
       </c>
       <c r="G85">
@@ -15231,6 +16419,3219 @@
       <c r="Q86">
         <f t="shared" si="1"/>
         <v>0.64880952380952384</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A13B30-7C7E-4B68-85FA-906321E04B06}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>3.5365853658536586</v>
+      </c>
+      <c r="C2">
+        <v>3.089430894308943</v>
+      </c>
+      <c r="D2">
+        <v>3.0162601626016259</v>
+      </c>
+      <c r="E2">
+        <v>3.3170731707317072</v>
+      </c>
+      <c r="F2">
+        <v>3.024390243902439</v>
+      </c>
+      <c r="G2">
+        <v>3.0569105691056913</v>
+      </c>
+      <c r="H2">
+        <v>3.4715447154471546</v>
+      </c>
+      <c r="I2">
+        <v>3.3252032520325203</v>
+      </c>
+      <c r="J2">
+        <v>3.0162601626016259</v>
+      </c>
+      <c r="K2">
+        <v>3.4878048780487805</v>
+      </c>
+      <c r="L2">
+        <v>3.5609756097560976</v>
+      </c>
+      <c r="M2">
+        <v>3.3414634146341462</v>
+      </c>
+      <c r="N2">
+        <v>3.6341463414634148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>3.6969696969696968</v>
+      </c>
+      <c r="C3">
+        <v>3.106060606060606</v>
+      </c>
+      <c r="D3">
+        <v>2.9848484848484849</v>
+      </c>
+      <c r="E3">
+        <v>3.4090909090909092</v>
+      </c>
+      <c r="F3">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="G3">
+        <v>3.0606060606060606</v>
+      </c>
+      <c r="H3">
+        <v>3.5</v>
+      </c>
+      <c r="I3">
+        <v>3.3636363636363638</v>
+      </c>
+      <c r="J3">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="K3">
+        <v>3.6212121212121211</v>
+      </c>
+      <c r="L3">
+        <v>3.393939393939394</v>
+      </c>
+      <c r="M3">
+        <v>3.3787878787878789</v>
+      </c>
+      <c r="N3">
+        <v>3.5606060606060606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>3.3571428571428572</v>
+      </c>
+      <c r="C4">
+        <v>3.0535714285714284</v>
+      </c>
+      <c r="D4">
+        <v>3.0178571428571428</v>
+      </c>
+      <c r="E4">
+        <v>3.2142857142857144</v>
+      </c>
+      <c r="F4">
+        <v>3.0178571428571428</v>
+      </c>
+      <c r="G4">
+        <v>3.0714285714285716</v>
+      </c>
+      <c r="H4">
+        <v>3.4464285714285716</v>
+      </c>
+      <c r="I4">
+        <v>3.3214285714285716</v>
+      </c>
+      <c r="J4">
+        <v>3.0357142857142856</v>
+      </c>
+      <c r="K4">
+        <v>3.375</v>
+      </c>
+      <c r="L4">
+        <v>3.8035714285714284</v>
+      </c>
+      <c r="M4">
+        <v>3.3392857142857144</v>
+      </c>
+      <c r="N4">
+        <v>3.7678571428571428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="C5">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="D5">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E5">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="F5">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G5">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J5">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K5">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="L5">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="M5">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N5">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>3.6190476190476191</v>
+      </c>
+      <c r="C6">
+        <v>3.1190476190476191</v>
+      </c>
+      <c r="D6">
+        <v>3.0476190476190474</v>
+      </c>
+      <c r="E6">
+        <v>3.2738095238095237</v>
+      </c>
+      <c r="F6">
+        <v>2.9523809523809526</v>
+      </c>
+      <c r="G6">
+        <v>3.0238095238095237</v>
+      </c>
+      <c r="H6">
+        <v>3.4285714285714284</v>
+      </c>
+      <c r="I6">
+        <v>3.3690476190476191</v>
+      </c>
+      <c r="J6">
+        <v>2.9642857142857144</v>
+      </c>
+      <c r="K6">
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="L6">
+        <v>3.4761904761904763</v>
+      </c>
+      <c r="M6">
+        <v>3.3571428571428572</v>
+      </c>
+      <c r="N6">
+        <v>3.5952380952380953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>3.7894736842105261</v>
+      </c>
+      <c r="C7">
+        <v>3.263157894736842</v>
+      </c>
+      <c r="D7">
+        <v>3.3421052631578947</v>
+      </c>
+      <c r="E7">
+        <v>3.5526315789473686</v>
+      </c>
+      <c r="F7">
+        <v>2.9210526315789473</v>
+      </c>
+      <c r="G7">
+        <v>3.1578947368421053</v>
+      </c>
+      <c r="H7">
+        <v>3.7894736842105261</v>
+      </c>
+      <c r="I7">
+        <v>3.3947368421052633</v>
+      </c>
+      <c r="J7">
+        <v>3.2894736842105261</v>
+      </c>
+      <c r="K7">
+        <v>3.6842105263157894</v>
+      </c>
+      <c r="L7">
+        <v>3.4736842105263159</v>
+      </c>
+      <c r="M7">
+        <v>3.8157894736842106</v>
+      </c>
+      <c r="N7">
+        <v>3.8421052631578947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A3195E-BDA2-4721-9F89-EF6165EE573D}">
+  <dimension ref="A1:Q66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M66" sqref="A66:M66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>4</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>4</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5</v>
+      </c>
+      <c r="L18" s="1">
+        <v>5</v>
+      </c>
+      <c r="M18" s="1">
+        <v>5</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
+      <c r="L19" s="1">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>4</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1">
+        <v>5</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>4</v>
+      </c>
+      <c r="L22" s="1">
+        <v>5</v>
+      </c>
+      <c r="M22" s="1">
+        <v>4</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
+      </c>
+      <c r="K23" s="1">
+        <v>4</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>4</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>4</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4</v>
+      </c>
+      <c r="M24" s="1">
+        <v>4</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
+      <c r="L26" s="1">
+        <v>5</v>
+      </c>
+      <c r="M26" s="1">
+        <v>5</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1">
+        <v>4</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4</v>
+      </c>
+      <c r="M28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>4</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5</v>
+      </c>
+      <c r="K30" s="1">
+        <v>5</v>
+      </c>
+      <c r="L30" s="1">
+        <v>3</v>
+      </c>
+      <c r="M30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1">
+        <v>4</v>
+      </c>
+      <c r="L31" s="1">
+        <v>4</v>
+      </c>
+      <c r="M31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3</v>
+      </c>
+      <c r="K32" s="1">
+        <v>5</v>
+      </c>
+      <c r="L32" s="1">
+        <v>4</v>
+      </c>
+      <c r="M32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>4</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1">
+        <v>3</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4</v>
+      </c>
+      <c r="K33" s="1">
+        <v>3</v>
+      </c>
+      <c r="L33" s="1">
+        <v>3</v>
+      </c>
+      <c r="M33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+      <c r="J34" s="1">
+        <v>3</v>
+      </c>
+      <c r="K34" s="1">
+        <v>2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>3</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4</v>
+      </c>
+      <c r="H35" s="1">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>4</v>
+      </c>
+      <c r="K35" s="1">
+        <v>5</v>
+      </c>
+      <c r="L35" s="1">
+        <v>4</v>
+      </c>
+      <c r="M35" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5</v>
+      </c>
+      <c r="L36" s="1">
+        <v>5</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4</v>
+      </c>
+      <c r="H37" s="1">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1">
+        <v>3</v>
+      </c>
+      <c r="J37" s="1">
+        <v>5</v>
+      </c>
+      <c r="K37" s="1">
+        <v>4</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3</v>
+      </c>
+      <c r="M37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3</v>
+      </c>
+      <c r="I38" s="1">
+        <v>3</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2</v>
+      </c>
+      <c r="M38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>4</v>
+      </c>
+      <c r="I39" s="1">
+        <v>4</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>5</v>
+      </c>
+      <c r="L39" s="1">
+        <v>2</v>
+      </c>
+      <c r="M39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>3</v>
+      </c>
+      <c r="K40" s="1">
+        <v>5</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4</v>
+      </c>
+      <c r="G41" s="1">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>5</v>
+      </c>
+      <c r="I41" s="1">
+        <v>4</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4</v>
+      </c>
+      <c r="K41" s="1">
+        <v>4</v>
+      </c>
+      <c r="L41" s="1">
+        <v>5</v>
+      </c>
+      <c r="M41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>4</v>
+      </c>
+      <c r="J42" s="1">
+        <v>3</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1">
+        <v>2</v>
+      </c>
+      <c r="M42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2</v>
+      </c>
+      <c r="M43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>5</v>
+      </c>
+      <c r="H44" s="1">
+        <v>4</v>
+      </c>
+      <c r="I44" s="1">
+        <v>3</v>
+      </c>
+      <c r="J44" s="1">
+        <v>4</v>
+      </c>
+      <c r="K44" s="1">
+        <v>4</v>
+      </c>
+      <c r="L44" s="1">
+        <v>4</v>
+      </c>
+      <c r="M44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4</v>
+      </c>
+      <c r="G45" s="1">
+        <v>5</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3</v>
+      </c>
+      <c r="I45" s="1">
+        <v>4</v>
+      </c>
+      <c r="J45" s="1">
+        <v>3</v>
+      </c>
+      <c r="K45" s="1">
+        <v>4</v>
+      </c>
+      <c r="L45" s="1">
+        <v>4</v>
+      </c>
+      <c r="M45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>3</v>
+      </c>
+      <c r="J46" s="1">
+        <v>3</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>2</v>
+      </c>
+      <c r="M46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3</v>
+      </c>
+      <c r="H47" s="1">
+        <v>3</v>
+      </c>
+      <c r="I47" s="1">
+        <v>5</v>
+      </c>
+      <c r="J47" s="1">
+        <v>5</v>
+      </c>
+      <c r="K47" s="1">
+        <v>5</v>
+      </c>
+      <c r="L47" s="1">
+        <v>5</v>
+      </c>
+      <c r="M47" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2</v>
+      </c>
+      <c r="K48" s="1">
+        <v>2</v>
+      </c>
+      <c r="L48" s="1">
+        <v>2</v>
+      </c>
+      <c r="M48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>2</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>4</v>
+      </c>
+      <c r="H50" s="1">
+        <v>4</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>5</v>
+      </c>
+      <c r="K50" s="1">
+        <v>3</v>
+      </c>
+      <c r="L50" s="1">
+        <v>2</v>
+      </c>
+      <c r="M50" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>4</v>
+      </c>
+      <c r="H51" s="1">
+        <v>4</v>
+      </c>
+      <c r="I51" s="1">
+        <v>4</v>
+      </c>
+      <c r="J51" s="1">
+        <v>3</v>
+      </c>
+      <c r="K51" s="1">
+        <v>4</v>
+      </c>
+      <c r="L51" s="1">
+        <v>5</v>
+      </c>
+      <c r="M51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>4</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1">
+        <v>4</v>
+      </c>
+      <c r="H52" s="1">
+        <v>4</v>
+      </c>
+      <c r="I52" s="1">
+        <v>3</v>
+      </c>
+      <c r="J52" s="1">
+        <v>4</v>
+      </c>
+      <c r="K52" s="1">
+        <v>4</v>
+      </c>
+      <c r="L52" s="1">
+        <v>4</v>
+      </c>
+      <c r="M52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1">
+        <v>5</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4</v>
+      </c>
+      <c r="H53" s="1">
+        <v>4</v>
+      </c>
+      <c r="I53" s="1">
+        <v>4</v>
+      </c>
+      <c r="J53" s="1">
+        <v>5</v>
+      </c>
+      <c r="K53" s="1">
+        <v>4</v>
+      </c>
+      <c r="L53" s="1">
+        <v>4</v>
+      </c>
+      <c r="M53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1">
+        <v>3</v>
+      </c>
+      <c r="I54" s="1">
+        <v>2</v>
+      </c>
+      <c r="J54" s="1">
+        <v>2</v>
+      </c>
+      <c r="K54" s="1">
+        <v>3</v>
+      </c>
+      <c r="L54" s="1">
+        <v>2</v>
+      </c>
+      <c r="M54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>4</v>
+      </c>
+      <c r="I55" s="1">
+        <v>2</v>
+      </c>
+      <c r="J55" s="1">
+        <v>4</v>
+      </c>
+      <c r="K55" s="1">
+        <v>5</v>
+      </c>
+      <c r="L55" s="1">
+        <v>2</v>
+      </c>
+      <c r="M55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
+        <v>5</v>
+      </c>
+      <c r="I56" s="1">
+        <v>4</v>
+      </c>
+      <c r="J56" s="1">
+        <v>3</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1">
+        <v>3</v>
+      </c>
+      <c r="M56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1">
+        <v>3</v>
+      </c>
+      <c r="I57" s="1">
+        <v>3</v>
+      </c>
+      <c r="J57" s="1">
+        <v>3</v>
+      </c>
+      <c r="K57" s="1">
+        <v>5</v>
+      </c>
+      <c r="L57" s="1">
+        <v>3</v>
+      </c>
+      <c r="M57" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>3</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>3</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1">
+        <v>2</v>
+      </c>
+      <c r="J58" s="1">
+        <v>2</v>
+      </c>
+      <c r="K58" s="1">
+        <v>2</v>
+      </c>
+      <c r="L58" s="1">
+        <v>2</v>
+      </c>
+      <c r="M58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>5</v>
+      </c>
+      <c r="I59" s="1">
+        <v>4</v>
+      </c>
+      <c r="J59" s="1">
+        <v>3</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1">
+        <v>3</v>
+      </c>
+      <c r="M59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1">
+        <v>4</v>
+      </c>
+      <c r="G60" s="1">
+        <v>5</v>
+      </c>
+      <c r="H60" s="1">
+        <v>3</v>
+      </c>
+      <c r="I60" s="1">
+        <v>3</v>
+      </c>
+      <c r="J60" s="1">
+        <v>3</v>
+      </c>
+      <c r="K60" s="1">
+        <v>4</v>
+      </c>
+      <c r="L60" s="1">
+        <v>3</v>
+      </c>
+      <c r="M60" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1">
+        <v>5</v>
+      </c>
+      <c r="H61" s="1">
+        <v>5</v>
+      </c>
+      <c r="I61" s="1">
+        <v>3</v>
+      </c>
+      <c r="J61" s="1">
+        <v>5</v>
+      </c>
+      <c r="K61" s="1">
+        <v>5</v>
+      </c>
+      <c r="L61" s="1">
+        <v>3</v>
+      </c>
+      <c r="M61" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1">
+        <v>3</v>
+      </c>
+      <c r="I62" s="1">
+        <v>3</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>4</v>
+      </c>
+      <c r="L62" s="1">
+        <v>4</v>
+      </c>
+      <c r="M62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>4</v>
+      </c>
+      <c r="H63" s="1">
+        <v>4</v>
+      </c>
+      <c r="I63" s="1">
+        <v>4</v>
+      </c>
+      <c r="J63" s="1">
+        <v>4</v>
+      </c>
+      <c r="K63" s="1">
+        <v>5</v>
+      </c>
+      <c r="L63" s="1">
+        <v>3</v>
+      </c>
+      <c r="M63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>5</v>
+      </c>
+      <c r="B64" s="1">
+        <v>4</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>4</v>
+      </c>
+      <c r="G64" s="1">
+        <v>4</v>
+      </c>
+      <c r="H64" s="1">
+        <v>5</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1">
+        <v>2</v>
+      </c>
+      <c r="K64" s="1">
+        <v>4</v>
+      </c>
+      <c r="L64" s="1">
+        <v>4</v>
+      </c>
+      <c r="M64" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>5</v>
+      </c>
+      <c r="G65" s="1">
+        <v>5</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1">
+        <v>4</v>
+      </c>
+      <c r="K65" s="1">
+        <v>3</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <f t="shared" ref="A66:L66" si="0">AVERAGE(A1:A65)</f>
+        <v>3.3846153846153846</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>2.8153846153846156</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>3.2307692307692308</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>3.046153846153846</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>3.0153846153846153</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>3.5384615384615383</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>3.4461538461538463</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>2.8923076923076922</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>3.4923076923076923</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>3.7384615384615385</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="M66">
+        <f>AVERAGE(M1:M65)</f>
+        <v>3.6461538461538461</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Survey all categories (not done yet).xlsx
+++ b/Results/Survey all categories (not done yet).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="11205" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="11205" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="82">
   <si>
     <t>26-35</t>
   </si>
@@ -192,16 +192,10 @@
   </si>
   <si>
     <t>Weights for 18-25:（Normilized)</t>
-  </si>
-  <si>
-    <t>Weights for 18-25:（Normilized)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Weights for 26-35:</t>
-  </si>
-  <si>
-    <t>Weights for 26-35:(Normilized)</t>
   </si>
   <si>
     <t>Weights for 26-35:(Normilized)</t>
@@ -693,10 +687,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7793,7 +7787,7 @@
     </row>
     <row r="136" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D136" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E136" s="5">
         <v>0.65476190476190477</v>
@@ -7881,7 +7875,7 @@
     </row>
     <row r="138" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D138" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E138" s="5">
         <v>0.69736842105263153</v>
@@ -7969,7 +7963,7 @@
     </row>
     <row r="140" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D140" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E140" s="5">
         <v>3.7777777777777777</v>
@@ -8013,7 +8007,7 @@
     </row>
     <row r="141" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D141" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E141" s="5">
         <v>4.5999999999999996</v>
@@ -8057,7 +8051,7 @@
     </row>
     <row r="142" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D142" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E142" s="5">
         <v>3</v>
@@ -8101,7 +8095,7 @@
     </row>
     <row r="143" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D143" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E143" s="5">
         <v>3.3333333333333335</v>
@@ -8145,7 +8139,7 @@
     </row>
     <row r="144" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D144" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E144" s="5">
         <v>5</v>
@@ -8189,7 +8183,7 @@
     </row>
     <row r="145" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D145" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E145" s="5">
         <v>3.3846153846153846</v>
@@ -8233,7 +8227,7 @@
     </row>
     <row r="146" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D146" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E146" s="5">
         <v>1</v>
@@ -8277,7 +8271,7 @@
     </row>
     <row r="147" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D147" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E147" s="5">
         <v>3.390625</v>
@@ -8321,7 +8315,7 @@
     </row>
     <row r="148" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D148" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E148" s="5">
         <v>1</v>
@@ -8365,7 +8359,7 @@
     </row>
     <row r="149" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D149" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E149" s="5">
         <v>4.5</v>
@@ -8409,7 +8403,7 @@
     </row>
     <row r="150" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D150" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E150" s="5">
         <v>2.3333333333333335</v>
@@ -8453,7 +8447,7 @@
     </row>
     <row r="151" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D151" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E151" s="5">
         <v>3.8666666666666667</v>
@@ -8497,7 +8491,7 @@
     </row>
     <row r="152" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D152" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E152" s="5">
         <v>3</v>
@@ -8548,10 +8542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E99C53-EE77-4D45-A00F-9326C9D150B5}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8562,1147 +8556,969 @@
     <col min="14" max="14" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="5">
-        <v>3.5365853658536586</v>
-      </c>
-      <c r="C1" s="5">
-        <v>3.089430894308943</v>
-      </c>
-      <c r="D1" s="5">
-        <v>3.0162601626016259</v>
-      </c>
-      <c r="E1" s="5">
-        <v>3.3170731707317072</v>
-      </c>
-      <c r="F1" s="5">
-        <v>3.024390243902439</v>
-      </c>
-      <c r="G1" s="5">
-        <v>3.0569105691056913</v>
-      </c>
-      <c r="H1" s="5">
-        <v>3.4715447154471546</v>
-      </c>
-      <c r="I1" s="5">
-        <v>3.3252032520325203</v>
-      </c>
-      <c r="J1" s="5">
-        <v>3.0162601626016259</v>
-      </c>
-      <c r="K1" s="5">
-        <v>3.4878048780487805</v>
-      </c>
-      <c r="L1" s="5">
-        <v>3.5609756097560976</v>
-      </c>
-      <c r="M1" s="5">
-        <v>3.3414634146341462</v>
-      </c>
-      <c r="N1" s="5">
-        <v>3.6341463414634148</v>
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3.5365853658536586</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3.089430894308943</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.0162601626016259</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3.3170731707317072</v>
+      </c>
+      <c r="F2" s="5">
+        <v>3.024390243902439</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3.0569105691056913</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3.4715447154471546</v>
+      </c>
+      <c r="I2" s="5">
+        <v>3.3252032520325203</v>
+      </c>
+      <c r="J2" s="5">
+        <v>3.0162601626016259</v>
+      </c>
+      <c r="K2" s="5">
+        <v>3.4878048780487805</v>
+      </c>
+      <c r="L2" s="5">
+        <v>3.5609756097560976</v>
+      </c>
+      <c r="M2" s="5">
+        <v>3.3414634146341462</v>
+      </c>
+      <c r="N2" s="5">
+        <v>3.6341463414634148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B3" s="6">
         <v>0.84210526315789469</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C3" s="6">
         <v>0.11842105263157901</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E3" s="6">
         <v>0.48684210526315763</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F3" s="6">
         <v>1.3157894736842351E-2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G3" s="6">
         <v>6.5789473684211036E-2</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H3" s="6">
         <v>0.73684210526315796</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I3" s="6">
         <v>0.5</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J3" s="6">
         <v>0</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K3" s="6">
         <v>0.76315789473684204</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L3" s="6">
         <v>0.88157894736842102</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M3" s="6">
         <v>0.52631578947368396</v>
       </c>
-      <c r="N2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="5">
-        <v>3.6969696969696968</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3.106060606060606</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2.9848484848484849</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3.4090909090909092</v>
-      </c>
-      <c r="F3" s="5">
-        <v>3.0303030303030303</v>
-      </c>
-      <c r="G3" s="5">
-        <v>3.0606060606060606</v>
-      </c>
-      <c r="H3" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="I3" s="5">
-        <v>3.3636363636363638</v>
-      </c>
-      <c r="J3" s="5">
-        <v>3.0303030303030303</v>
-      </c>
-      <c r="K3" s="5">
-        <v>3.6212121212121211</v>
-      </c>
-      <c r="L3" s="5">
-        <v>3.393939393939394</v>
-      </c>
-      <c r="M3" s="5">
-        <v>3.3787878787878789</v>
-      </c>
-      <c r="N3" s="5">
-        <v>3.5606060606060606</v>
+      <c r="N3" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B4" s="5">
-        <v>3.3571428571428572</v>
+        <v>3.6969696969696968</v>
       </c>
       <c r="C4" s="5">
-        <v>3.0535714285714284</v>
+        <v>3.106060606060606</v>
       </c>
       <c r="D4" s="5">
-        <v>3.0178571428571428</v>
+        <v>2.9848484848484849</v>
       </c>
       <c r="E4" s="5">
-        <v>3.2142857142857144</v>
+        <v>3.4090909090909092</v>
       </c>
       <c r="F4" s="5">
-        <v>3.0178571428571428</v>
+        <v>3.0303030303030303</v>
       </c>
       <c r="G4" s="5">
-        <v>3.0714285714285716</v>
+        <v>3.0606060606060606</v>
       </c>
       <c r="H4" s="5">
-        <v>3.4464285714285716</v>
+        <v>3.5</v>
       </c>
       <c r="I4" s="5">
-        <v>3.3214285714285716</v>
+        <v>3.3636363636363638</v>
       </c>
       <c r="J4" s="5">
-        <v>3.0357142857142856</v>
+        <v>3.0303030303030303</v>
       </c>
       <c r="K4" s="5">
-        <v>3.375</v>
+        <v>3.6212121212121211</v>
       </c>
       <c r="L4" s="5">
-        <v>3.8035714285714284</v>
+        <v>3.393939393939394</v>
       </c>
       <c r="M4" s="5">
-        <v>3.3392857142857144</v>
+        <v>3.3787878787878789</v>
       </c>
       <c r="N4" s="5">
-        <v>3.7678571428571428</v>
+        <v>3.5606060606060606</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5">
-        <v>1</v>
+        <v>3.3571428571428572</v>
       </c>
       <c r="C5" s="5">
-        <v>0.17021276595744669</v>
+        <v>3.0535714285714284</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
+        <v>3.0178571428571428</v>
       </c>
       <c r="E5" s="5">
-        <v>0.59574468085106413</v>
+        <v>3.2142857142857144</v>
       </c>
       <c r="F5" s="5">
-        <v>6.3829787234042507E-2</v>
+        <v>3.0178571428571428</v>
       </c>
       <c r="G5" s="5">
-        <v>0.10638297872340419</v>
+        <v>3.0714285714285716</v>
       </c>
       <c r="H5" s="5">
-        <v>0.72340425531914909</v>
+        <v>3.4464285714285716</v>
       </c>
       <c r="I5" s="5">
-        <v>0.5319148936170216</v>
+        <v>3.3214285714285716</v>
       </c>
       <c r="J5" s="5">
-        <v>6.3829787234042507E-2</v>
+        <v>3.0357142857142856</v>
       </c>
       <c r="K5" s="5">
-        <v>0.89361702127659581</v>
+        <v>3.375</v>
       </c>
       <c r="L5" s="5">
-        <v>0.57446808510638325</v>
+        <v>3.8035714285714284</v>
       </c>
       <c r="M5" s="5">
-        <v>0.55319148936170237</v>
+        <v>3.3392857142857144</v>
       </c>
       <c r="N5" s="5">
-        <v>0.80851063829787251</v>
+        <v>3.7678571428571428</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5">
-        <v>0.43181818181818205</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="C6" s="5">
-        <v>4.5454545454545303E-2</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="D6" s="5">
-        <v>0</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E6" s="5">
-        <v>0.25000000000000028</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="G6" s="5">
-        <v>6.818181818181851E-2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H6" s="5">
-        <v>0.54545454545454586</v>
+        <v>4</v>
       </c>
       <c r="I6" s="5">
-        <v>0.38636363636363674</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J6" s="5">
-        <v>2.2727272727272652E-2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K6" s="5">
-        <v>0.4545454545454547</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="L6" s="5">
-        <v>1</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="M6" s="5">
-        <v>0.40909090909090939</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="N6" s="5">
-        <v>0.9545454545454547</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5">
-        <v>2.6666666666666665</v>
+        <v>3.6190476190476191</v>
       </c>
       <c r="C7" s="5">
-        <v>3.6666666666666665</v>
+        <v>3.1190476190476191</v>
       </c>
       <c r="D7" s="5">
-        <v>2.6666666666666665</v>
+        <v>3.0476190476190474</v>
       </c>
       <c r="E7" s="5">
-        <v>3.3333333333333335</v>
+        <v>3.2738095238095237</v>
       </c>
       <c r="F7" s="5">
-        <v>2.3333333333333335</v>
+        <v>2.9523809523809526</v>
       </c>
       <c r="G7" s="5">
-        <v>2.6666666666666665</v>
+        <v>3.0238095238095237</v>
       </c>
       <c r="H7" s="5">
-        <v>4</v>
+        <v>3.4285714285714284</v>
       </c>
       <c r="I7" s="5">
-        <v>3.3333333333333335</v>
+        <v>3.3690476190476191</v>
       </c>
       <c r="J7" s="5">
-        <v>1.6666666666666667</v>
+        <v>2.9642857142857144</v>
       </c>
       <c r="K7" s="5">
-        <v>4.666666666666667</v>
+        <v>3.4166666666666665</v>
       </c>
       <c r="L7" s="5">
-        <v>2.6666666666666665</v>
+        <v>3.4761904761904763</v>
       </c>
       <c r="M7" s="5">
-        <v>1.3333333333333333</v>
+        <v>3.3571428571428572</v>
       </c>
       <c r="N7" s="5">
-        <v>4.333333333333333</v>
+        <v>3.5952380952380953</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5">
-        <v>0.39999999999999991</v>
+        <v>3.7894736842105261</v>
       </c>
       <c r="C8" s="5">
-        <v>0.69999999999999973</v>
+        <v>3.263157894736842</v>
       </c>
       <c r="D8" s="5">
-        <v>0.39999999999999991</v>
+        <v>3.3421052631578947</v>
       </c>
       <c r="E8" s="5">
-        <v>0.59999999999999987</v>
+        <v>3.5526315789473686</v>
       </c>
       <c r="F8" s="5">
-        <v>0.3</v>
+        <v>2.9210526315789473</v>
       </c>
       <c r="G8" s="5">
-        <v>0.39999999999999991</v>
+        <v>3.1578947368421053</v>
       </c>
       <c r="H8" s="5">
-        <v>0.79999999999999993</v>
+        <v>3.7894736842105261</v>
       </c>
       <c r="I8" s="5">
-        <v>0.59999999999999987</v>
+        <v>3.3947368421052633</v>
       </c>
       <c r="J8" s="5">
-        <v>0.10000000000000003</v>
+        <v>3.2894736842105261</v>
       </c>
       <c r="K8" s="5">
-        <v>1</v>
+        <v>3.6842105263157894</v>
       </c>
       <c r="L8" s="5">
-        <v>0.39999999999999991</v>
+        <v>3.4736842105263159</v>
       </c>
       <c r="M8" s="5">
-        <v>0</v>
+        <v>3.8157894736842106</v>
       </c>
       <c r="N8" s="5">
-        <v>0.8999999999999998</v>
+        <v>3.8421052631578947</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5">
-        <v>3.6190476190476191</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5">
-        <v>3.1190476190476191</v>
+        <v>4</v>
       </c>
       <c r="D9" s="5">
-        <v>3.0476190476190474</v>
+        <v>4</v>
       </c>
       <c r="E9" s="5">
-        <v>3.2738095238095237</v>
+        <v>3</v>
       </c>
       <c r="F9" s="5">
-        <v>2.9523809523809526</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5">
-        <v>3.0238095238095237</v>
+        <v>2</v>
       </c>
       <c r="H9" s="5">
-        <v>3.4285714285714284</v>
+        <v>3</v>
       </c>
       <c r="I9" s="5">
-        <v>3.3690476190476191</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5">
-        <v>2.9642857142857144</v>
+        <v>5</v>
       </c>
       <c r="K9" s="5">
-        <v>3.4166666666666665</v>
+        <v>1</v>
       </c>
       <c r="L9" s="5">
-        <v>3.4761904761904763</v>
+        <v>4</v>
       </c>
       <c r="M9" s="5">
-        <v>3.3571428571428572</v>
+        <v>3</v>
       </c>
       <c r="N9" s="5">
-        <v>3.5952380952380953</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5">
-        <v>0.65476190476190477</v>
+        <v>3.7777777777777777</v>
       </c>
       <c r="C10" s="5">
-        <v>0.52976190476190477</v>
+        <v>3.2592592592592591</v>
       </c>
       <c r="D10" s="5">
-        <v>0.51190476190476186</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="E10" s="5">
-        <v>0.56845238095238093</v>
+        <v>3.5185185185185186</v>
       </c>
       <c r="F10" s="5">
-        <v>0.48809523809523814</v>
+        <v>2.9629629629629628</v>
       </c>
       <c r="G10" s="5">
-        <v>0.50595238095238093</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="H10" s="5">
-        <v>0.6071428571428571</v>
+        <v>3.8888888888888888</v>
       </c>
       <c r="I10" s="5">
-        <v>0.59226190476190477</v>
+        <v>3.4814814814814814</v>
       </c>
       <c r="J10" s="5">
-        <v>0.4910714285714286</v>
+        <v>3.5925925925925926</v>
       </c>
       <c r="K10" s="5">
-        <v>0.60416666666666663</v>
+        <v>3.6296296296296298</v>
       </c>
       <c r="L10" s="5">
-        <v>0.61904761904761907</v>
+        <v>3.5925925925925926</v>
       </c>
       <c r="M10" s="5">
-        <v>0.5892857142857143</v>
+        <v>4</v>
       </c>
       <c r="N10" s="5">
-        <v>0.64880952380952384</v>
+        <v>3.9629629629629628</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B11" s="5">
-        <v>3.7894736842105261</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C11" s="5">
-        <v>3.263157894736842</v>
+        <v>3.4</v>
       </c>
       <c r="D11" s="5">
-        <v>3.3421052631578947</v>
+        <v>3.6</v>
       </c>
       <c r="E11" s="5">
-        <v>3.5526315789473686</v>
+        <v>4</v>
       </c>
       <c r="F11" s="5">
-        <v>2.9210526315789473</v>
+        <v>3.2</v>
       </c>
       <c r="G11" s="5">
-        <v>3.1578947368421053</v>
+        <v>2.8</v>
       </c>
       <c r="H11" s="5">
-        <v>3.7894736842105261</v>
+        <v>4.2</v>
       </c>
       <c r="I11" s="5">
-        <v>3.3947368421052633</v>
+        <v>2.8</v>
       </c>
       <c r="J11" s="5">
-        <v>3.2894736842105261</v>
+        <v>2.4</v>
       </c>
       <c r="K11" s="5">
-        <v>3.6842105263157894</v>
+        <v>3.4</v>
       </c>
       <c r="L11" s="5">
-        <v>3.4736842105263159</v>
+        <v>3.2</v>
       </c>
       <c r="M11" s="5">
-        <v>3.8157894736842106</v>
+        <v>3.8</v>
       </c>
       <c r="N11" s="5">
-        <v>3.8421052631578947</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5">
-        <v>0.69736842105263153</v>
+        <v>3</v>
       </c>
       <c r="C12" s="5">
-        <v>0.56578947368421051</v>
+        <v>3</v>
       </c>
       <c r="D12" s="5">
-        <v>0.58552631578947367</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="E12" s="5">
-        <v>0.63815789473684215</v>
+        <v>4</v>
       </c>
       <c r="F12" s="5">
-        <v>0.48026315789473684</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="G12" s="5">
-        <v>0.53947368421052633</v>
+        <v>3</v>
       </c>
       <c r="H12" s="5">
-        <v>0.69736842105263153</v>
+        <v>3</v>
       </c>
       <c r="I12" s="5">
-        <v>0.59868421052631582</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J12" s="5">
-        <v>0.57236842105263153</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="K12" s="5">
-        <v>0.67105263157894735</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="L12" s="5">
-        <v>0.61842105263157898</v>
+        <v>4</v>
       </c>
       <c r="M12" s="5">
-        <v>0.70394736842105265</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="N12" s="5">
-        <v>0.71052631578947367</v>
+        <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5">
-        <v>5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="D13" s="5">
-        <v>4</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E13" s="5">
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="G13" s="5">
-        <v>2</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="H13" s="5">
         <v>3</v>
       </c>
       <c r="I13" s="5">
-        <v>1</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="J13" s="5">
-        <v>5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K13" s="5">
-        <v>1</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="L13" s="5">
-        <v>4</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="M13" s="5">
-        <v>3</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="N13" s="5">
-        <v>3</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B14" s="5">
-        <v>3.7777777777777777</v>
+        <v>5</v>
       </c>
       <c r="C14" s="5">
-        <v>3.2592592592592591</v>
+        <v>3</v>
       </c>
       <c r="D14" s="5">
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="E14" s="5">
-        <v>3.5185185185185186</v>
+        <v>4</v>
       </c>
       <c r="F14" s="5">
-        <v>2.9629629629629628</v>
+        <v>5</v>
       </c>
       <c r="G14" s="5">
-        <v>3.3333333333333335</v>
+        <v>4</v>
       </c>
       <c r="H14" s="5">
-        <v>3.8888888888888888</v>
+        <v>5</v>
       </c>
       <c r="I14" s="5">
-        <v>3.4814814814814814</v>
+        <v>2</v>
       </c>
       <c r="J14" s="5">
-        <v>3.5925925925925926</v>
+        <v>4</v>
       </c>
       <c r="K14" s="5">
-        <v>3.6296296296296298</v>
+        <v>3</v>
       </c>
       <c r="L14" s="5">
-        <v>3.5925925925925926</v>
+        <v>5</v>
       </c>
       <c r="M14" s="5">
         <v>4</v>
       </c>
       <c r="N14" s="5">
-        <v>3.9629629629629628</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B15" s="5">
-        <v>4.5999999999999996</v>
+        <v>3.3846153846153846</v>
       </c>
       <c r="C15" s="5">
-        <v>3.4</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="D15" s="5">
-        <v>3.6</v>
+        <v>2.8153846153846156</v>
       </c>
       <c r="E15" s="5">
-        <v>4</v>
+        <v>3.2307692307692308</v>
       </c>
       <c r="F15" s="5">
+        <v>3.046153846153846</v>
+      </c>
+      <c r="G15" s="5">
+        <v>3.0153846153846153</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3.5384615384615383</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3.4461538461538463</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2.8923076923076922</v>
+      </c>
+      <c r="K15" s="5">
+        <v>3.4923076923076923</v>
+      </c>
+      <c r="L15" s="5">
+        <v>3.7384615384615385</v>
+      </c>
+      <c r="M15" s="5">
         <v>3.2</v>
       </c>
-      <c r="G15" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="H15" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="I15" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="J15" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="K15" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="L15" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="M15" s="5">
-        <v>3.8</v>
-      </c>
       <c r="N15" s="5">
-        <v>3</v>
+        <v>3.6461538461538461</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="5">
-        <v>3.6666666666666665</v>
+        <v>3</v>
       </c>
       <c r="E16" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5">
-        <v>2.3333333333333335</v>
+        <v>1</v>
       </c>
       <c r="G16" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="5">
-        <v>3.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="J16" s="5">
-        <v>3.6666666666666665</v>
+        <v>2</v>
       </c>
       <c r="K16" s="5">
-        <v>3.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="L16" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M16" s="5">
-        <v>4.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="N16" s="5">
-        <v>3.6666666666666665</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B17" s="5">
-        <v>3.3333333333333335</v>
+        <v>3.390625</v>
       </c>
       <c r="C17" s="5">
-        <v>3.3333333333333335</v>
+        <v>3.078125</v>
       </c>
       <c r="D17" s="5">
-        <v>2.6666666666666665</v>
+        <v>2.8125</v>
       </c>
       <c r="E17" s="5">
-        <v>2.6666666666666665</v>
+        <v>3.25</v>
       </c>
       <c r="F17" s="5">
-        <v>2.6666666666666665</v>
+        <v>3.046875</v>
       </c>
       <c r="G17" s="5">
-        <v>2.3333333333333335</v>
+        <v>3.03125</v>
       </c>
       <c r="H17" s="5">
-        <v>3</v>
+        <v>3.5625</v>
       </c>
       <c r="I17" s="5">
-        <v>3.6666666666666665</v>
+        <v>3.46875</v>
       </c>
       <c r="J17" s="5">
-        <v>1.6666666666666667</v>
+        <v>2.890625</v>
       </c>
       <c r="K17" s="5">
-        <v>4.666666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="L17" s="5">
-        <v>2.3333333333333335</v>
+        <v>3.765625</v>
       </c>
       <c r="M17" s="5">
-        <v>1.3333333333333333</v>
+        <v>3.21875</v>
       </c>
       <c r="N17" s="5">
-        <v>4.333333333333333</v>
+        <v>3.671875</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B18" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I18" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L18" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M18" s="5">
         <v>4</v>
       </c>
       <c r="N18" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5">
-        <v>3.3846153846153846</v>
+        <v>4.5</v>
       </c>
       <c r="C19" s="5">
-        <v>3.0769230769230771</v>
+        <v>3.25</v>
       </c>
       <c r="D19" s="5">
-        <v>2.8153846153846156</v>
+        <v>3.5</v>
       </c>
       <c r="E19" s="5">
-        <v>3.2307692307692308</v>
+        <v>4</v>
       </c>
       <c r="F19" s="5">
-        <v>3.046153846153846</v>
+        <v>4</v>
       </c>
       <c r="G19" s="5">
-        <v>3.0153846153846153</v>
+        <v>3.75</v>
       </c>
       <c r="H19" s="5">
-        <v>3.5384615384615383</v>
+        <v>3.75</v>
       </c>
       <c r="I19" s="5">
-        <v>3.4461538461538463</v>
+        <v>3.25</v>
       </c>
       <c r="J19" s="5">
-        <v>2.8923076923076922</v>
+        <v>4</v>
       </c>
       <c r="K19" s="5">
-        <v>3.4923076923076923</v>
+        <v>4</v>
       </c>
       <c r="L19" s="5">
-        <v>3.7384615384615385</v>
+        <v>4</v>
       </c>
       <c r="M19" s="5">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N19" s="5">
-        <v>3.6461538461538461</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5">
-        <v>1</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="C20" s="5">
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="D20" s="5">
-        <v>3</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E20" s="5">
-        <v>1</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="F20" s="5">
-        <v>1</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="G20" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="5">
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J20" s="5">
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="K20" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L20" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" s="5">
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="N20" s="5">
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B21" s="5">
-        <v>3.390625</v>
+        <v>3.8666666666666667</v>
       </c>
       <c r="C21" s="5">
-        <v>3.078125</v>
+        <v>2.7333333333333334</v>
       </c>
       <c r="D21" s="5">
-        <v>2.8125</v>
+        <v>2.7333333333333334</v>
       </c>
       <c r="E21" s="5">
-        <v>3.25</v>
+        <v>3.2666666666666666</v>
       </c>
       <c r="F21" s="5">
-        <v>3.046875</v>
+        <v>2.8</v>
       </c>
       <c r="G21" s="5">
-        <v>3.03125</v>
+        <v>2.8</v>
       </c>
       <c r="H21" s="5">
-        <v>3.5625</v>
+        <v>2.7333333333333334</v>
       </c>
       <c r="I21" s="5">
-        <v>3.46875</v>
+        <v>2.9333333333333331</v>
       </c>
       <c r="J21" s="5">
-        <v>2.890625</v>
+        <v>2.8</v>
       </c>
       <c r="K21" s="5">
-        <v>3.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="L21" s="5">
-        <v>3.765625</v>
+        <v>2.9333333333333331</v>
       </c>
       <c r="M21" s="5">
-        <v>3.21875</v>
+        <v>3</v>
       </c>
       <c r="N21" s="5">
-        <v>3.671875</v>
+        <v>3.1333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B22" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="5">
         <v>2</v>
       </c>
       <c r="H22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K22" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L22" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M22" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="C23" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="D23" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="E23" s="5">
-        <v>4</v>
-      </c>
-      <c r="F23" s="5">
-        <v>4</v>
-      </c>
-      <c r="G23" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="H23" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="I23" s="5">
-        <v>3.25</v>
-      </c>
-      <c r="J23" s="5">
-        <v>4</v>
-      </c>
-      <c r="K23" s="5">
-        <v>4</v>
-      </c>
-      <c r="L23" s="5">
-        <v>4</v>
-      </c>
-      <c r="M23" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="N23" s="5">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="5">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="E24" s="5">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="F24" s="5">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="G24" s="5">
-        <v>2</v>
-      </c>
-      <c r="H24" s="5">
-        <v>3</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="J24" s="5">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="K24" s="5">
-        <v>3</v>
-      </c>
-      <c r="L24" s="5">
-        <v>3</v>
-      </c>
-      <c r="M24" s="5">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="N24" s="5">
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="5">
-        <v>3.8666666666666667</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2.7333333333333334</v>
-      </c>
-      <c r="D25" s="5">
-        <v>2.7333333333333334</v>
-      </c>
-      <c r="E25" s="5">
-        <v>3.2666666666666666</v>
-      </c>
-      <c r="F25" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="G25" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="H25" s="5">
-        <v>2.7333333333333334</v>
-      </c>
-      <c r="I25" s="5">
-        <v>2.9333333333333331</v>
-      </c>
-      <c r="J25" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="K25" s="5">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="L25" s="5">
-        <v>2.9333333333333331</v>
-      </c>
-      <c r="M25" s="5">
-        <v>3</v>
-      </c>
-      <c r="N25" s="5">
-        <v>3.1333333333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="5">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5">
-        <v>3</v>
-      </c>
-      <c r="D26" s="5">
-        <v>3</v>
-      </c>
-      <c r="E26" s="5">
-        <v>2</v>
-      </c>
-      <c r="F26" s="5">
-        <v>3</v>
-      </c>
-      <c r="G26" s="5">
-        <v>2</v>
-      </c>
-      <c r="H26" s="5">
-        <v>2</v>
-      </c>
-      <c r="I26" s="5">
-        <v>2</v>
-      </c>
-      <c r="J26" s="5">
-        <v>3</v>
-      </c>
-      <c r="K26" s="5">
-        <v>3</v>
-      </c>
-      <c r="L26" s="5">
-        <v>2</v>
-      </c>
-      <c r="M26" s="5">
-        <v>2</v>
-      </c>
-      <c r="N26" s="5">
         <v>2</v>
       </c>
     </row>
@@ -16528,7 +16344,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <v>3.6969696969696968</v>
@@ -16704,7 +16520,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>3.7894736842105261</v>
@@ -16748,7 +16564,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -16801,7 +16617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A3195E-BDA2-4721-9F89-EF6165EE573D}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M66" sqref="A66:M66"/>
     </sheetView>
   </sheetViews>
